--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_37.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_37.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04062485694885254</v>
+        <v>0.0004808902740478516</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02544999122619629</v>
+        <v>0.0004549026489257812</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004949569702148438</v>
+        <v>0.0177762508392334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1082,110 +1082,120 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23</v>
+        <v>0.9985701976134886</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.09028387069702148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.03919696807861328</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
